--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Extrinsic compressing mass on esophagus_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Extrinsic compressing mass on esophagus_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia, initially to solids and later to liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with extrinsic compression of the esophagus, as the mass can obstruct the passage of food.</t>
+          <t>Progressive dysphagia is a classic symptom of esophageal compression, as the mass gradually narrows the esophageal lumen.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of gastrointestinal symptoms</t>
+          <t>Intermittent dysphagia with no progression</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The lack of gastrointestinal symptoms such as nausea, vomiting, or changes in bowel habits suggests that there may not be an obstruction or mass affecting the esophagus.</t>
+          <t>Intermittent dysphagia is more suggestive of a motility disorder rather than a fixed extrinsic compression.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss</t>
+          <t>Odynophagia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss may occur due to difficulty in eating and swallowing, which is often seen in patients with an esophageal mass.</t>
+          <t>Painful swallowing can occur when a mass compresses the esophagus, causing irritation or inflammation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal appetite</t>
+          <t>No significant weight loss</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal appetite indicates that the patient is able to eat without difficulty, which is less likely in the presence of an esophageal mass.</t>
+          <t>The absence of weight loss suggests that the swallowing difficulty is not severe enough to impact nutritional intake, which is less consistent with significant esophageal compression.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chest pain or discomfort</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chest pain can be a symptom of esophageal obstruction or irritation caused by an extrinsic mass compressing the esophagus.</t>
+          <t>Regurgitation suggests a mechanical obstruction, which is consistent with an extrinsic mass compressing the esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of weight loss</t>
+          <t>Symptoms relieved by antacids</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of weight loss suggests that the patient is not experiencing significant difficulty with food intake, which would be expected with an extrinsic mass.</t>
+          <t>Relief of symptoms with antacids suggests gastroesophageal reflux disease (GERD) rather than a structural compression.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recent onset of hoarseness</t>
+          <t>Weight loss</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hoarseness may indicate involvement of nearby structures, such as the recurrent laryngeal nerve, which can be affected by a mass compressing the esophagus.</t>
+          <t>Unintentional weight loss can occur due to difficulty swallowing and reduced oral intake, common in esophageal compression.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stable health status</t>
+          <t>No regurgitation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A stable health status without new symptoms or changes in condition may indicate that there is no significant underlying pathology such as an extrinsic mass.</t>
+          <t>The absence of regurgitation makes a mechanical obstruction less likely, as regurgitation is common with esophageal compression.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of smoking or alcohol use</t>
+          <t>Chest pain or discomfort</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A history of smoking or alcohol use increases the risk of malignancies that can lead to extrinsic compression of the esophagus.</t>
+          <t>Chest pain can be a result of esophageal compression, especially if the mass is pressing against other structures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of malignancy</t>
+          <t>Normal appetite</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of personal or family history of malignancy reduces the likelihood of an extrinsic compressing mass being present.</t>
+          <t>A normal appetite despite swallowing difficulties suggests that the issue may not be due to a significant obstruction like an extrinsic mass.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of malignancy in the past</t>
+          <t>History of mediastinal tumors</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with a history of cancer, particularly in the thoracic region, are at higher risk for developing extrinsic compressing masses on the esophagus due to tumor recurrence or metastasis.</t>
+          <t>Mediastinal tumors can directly compress the esophagus, leading to extrinsic compression.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of malignancy</t>
+          <t>No history of mediastinal masses</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a cancer history significantly reduces the likelihood of an extrinsic compressing mass on the esophagus.</t>
+          <t>The absence of mediastinal masses reduces the likelihood of extrinsic compression on the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous thoracic surgery</t>
+          <t>Previous diagnosis of lymphadenopathy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prior surgical interventions in the thoracic cavity can lead to scarring or the formation of masses that may compress the esophagus.</t>
+          <t>Enlarged lymph nodes, especially in the mediastinum, can cause external compression on the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous thoracic surgeries</t>
+          <t>No history of thoracic surgeries</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Without prior surgical history, the risk of developing scar tissue or masses that could compress the esophagus is lower.</t>
+          <t>Without prior thoracic surgeries, the risk of post-surgical complications causing compression is lower.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chronic history of weight loss</t>
+          <t>History of thoracic aortic aneurysm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can be associated with malignancies or other conditions that may lead to extrinsic compression of the esophagus.</t>
+          <t>An enlarged aorta can exert pressure on the esophagus, causing compression.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stable weight with no significant loss</t>
+          <t>No history of significant lymphadenopathy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A stable weight suggests that there are no underlying malignancies or conditions causing esophageal compression.</t>
+          <t>Without lymphadenopathy, the chance of lymph nodes compressing the esophagus is reduced.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of radiation therapy to the chest</t>
+          <t>Previous esophageal surgery with complications</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Radiation therapy can lead to fibrosis and the development of masses that may compress the esophagus.</t>
+          <t>Surgical complications can lead to scar tissue or other masses that compress the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of radiation therapy</t>
+          <t>No history of vascular abnormalities</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of radiation treatment decreases the likelihood of developing fibrotic changes or masses in the thoracic region.</t>
+          <t>The absence of vascular abnormalities like aneurysms decreases the likelihood of esophageal compression.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of autoimmune diseases</t>
+          <t>History of lung cancer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certain autoimmune conditions can lead to the formation of masses or lymphadenopathy that may compress the esophagus.</t>
+          <t>Lung cancer can metastasize or grow in a way that compresses the esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No autoimmune diseases reported</t>
+          <t>No history of malignancies in the thoracic region</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Without autoimmune conditions, the likelihood of developing compressive masses related to such diseases is significantly reduced.</t>
+          <t>Without thoracic malignancies, the probability of a mass compressing the esophagus is lower.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Family history of mediastinal tumors</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Smoking is a known risk factor for various types of cancers, including those that can cause extrinsic compression of the esophagus.</t>
+          <t>A family history of mediastinal tumors increases the likelihood of an extrinsic compressing mass on the esophagus due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of smoking</t>
+          <t>No family history of cancer</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of smoking history significantly reduces the risk of developing esophageal cancers that could cause extrinsic compression.</t>
+          <t>The absence of a family history of cancer reduces the likelihood of a genetic predisposition to tumors causing esophageal compression.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Family history of esophageal cancer</t>
+          <t>Occupational exposure to asbestos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A family history of esophageal cancer increases the likelihood of developing conditions that could lead to an extrinsic compressing mass.</t>
+          <t>Asbestos exposure is linked to mesothelioma, which can cause extrinsic compression of the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No family history of cancer</t>
+          <t>No history of smoking</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of a family history of cancer decreases the likelihood of genetic predispositions that could lead to an extrinsic compressing mass.</t>
+          <t>Without a history of smoking, the risk of lung cancer and related esophageal compression is lower.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to carcinogens</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain occupations expose individuals to carcinogenic substances that can lead to tumors causing extrinsic compression of the esophagus.</t>
+          <t>Smoking is a risk factor for lung cancer, which can lead to extrinsic compression of the esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engagement in regular physical activity</t>
+          <t>No occupational exposure to carcinogens</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular physical activity is associated with lower risks of various cancers, including those affecting the esophagus.</t>
+          <t>Lack of exposure to occupational carcinogens decreases the risk of developing tumors that could compress the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chronic alcohol use</t>
+          <t>Living in an area with high air pollution</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic alcohol consumption is associated with an increased risk of esophageal malignancies, which can present as extrinsic masses.</t>
+          <t>High air pollution is associated with increased risk of respiratory and mediastinal tumors, which can compress the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Healthy diet with low processed food intake</t>
+          <t>Healthy lifestyle with regular exercise</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A diet low in processed foods and high in fruits and vegetables is linked to a reduced risk of esophageal cancer.</t>
+          <t>A healthy lifestyle with regular exercise is associated with a lower risk of cancer, reducing the likelihood of esophageal compression.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Family history of esophageal cancer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronic GERD can lead to Barrett's esophagus and increase the risk of esophageal cancer, which may present as an extrinsic compressing mass.</t>
+          <t>A family history of esophageal cancer may suggest a genetic predisposition to tumors that could cause extrinsic compression.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of chronic reflux symptoms</t>
+          <t>Living in a rural area with low pollution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of chronic reflux symptoms suggests a lower risk for conditions that could lead to an extrinsic compressing mass.</t>
+          <t>Living in a low pollution area reduces the risk of respiratory and mediastinal tumors, which could compress the esophagus.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with an extrinsic compressing mass on the esophagus, as the mass can obstruct the passage of food.</t>
+          <t>Difficulty swallowing is a common symptom when there is an extrinsic mass compressing the esophagus, as it directly affects the passage of food.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal swallowing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stable vital signs may suggest that there is no significant obstruction or mass affecting the esophagus, arguing against the diagnosis.</t>
+          <t>The absence of swallowing difficulties suggests that there is no significant compression on the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Regurgitation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can occur due to difficulty swallowing and reduced food intake, which is often seen in patients with an esophageal mass.</t>
+          <t>Regurgitation of undigested food can occur due to obstruction caused by an external mass compressing the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of respiratory distress</t>
+          <t>No palpable neck mass</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If the patient is not experiencing respiratory distress, it may indicate that there is no significant extrinsic compression affecting the airway or esophagus.</t>
+          <t>The absence of a palpable neck mass reduces the likelihood of an extrinsic mass compressing the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stridor or wheezing</t>
+          <t>Weight loss</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These respiratory findings can indicate airway compression due to a mass near the esophagus, suggesting an extrinsic compressing mass.</t>
+          <t>Unintentional weight loss can occur due to reduced food intake from difficulty swallowing.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal physical examination of the abdomen</t>
+          <t>Normal voice</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal abdominal exam may suggest that there is no mass or obstruction affecting the esophagus from an abdominal source.</t>
+          <t>A normal voice without hoarseness suggests that there is no compression affecting the recurrent laryngeal nerve.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chest pain</t>
+          <t>Neck mass</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chest pain can be a symptom of esophageal obstruction or irritation caused by a compressing mass, supporting the diagnosis.</t>
+          <t>A palpable neck mass may indicate an external structure compressing the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of malnutrition</t>
+          <t>Normal weight</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of malnutrition may indicate that the patient is able to maintain adequate nutrition, which is less likely if there is a significant esophageal obstruction.</t>
+          <t>Maintaining normal weight indicates that there is no significant obstruction affecting food intake.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Palpable mass in the neck or chest</t>
+          <t>Hoarseness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A palpable mass may indicate an extrinsic source of compression on the esophagus, providing strong evidence for the diagnosis.</t>
+          <t>Hoarseness can occur if the recurrent laryngeal nerve is affected by an extrinsic mass near the esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on exam</t>
+          <t>No regurgitation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal motility suggests that there is no obstruction or mass affecting the esophagus, providing evidence against the diagnosis.</t>
+          <t>The absence of regurgitation suggests that there is no obstruction in the esophagus.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CT scan showing a mass adjacent to the esophagus</t>
+          <t>CT scan showing a mass compressing the esophagus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A CT scan can reveal extrinsic masses that compress the esophagus, strongly indicating the presence of an extrinsic compressing mass.</t>
+          <t>A CT scan directly visualizing a mass compressing the esophagus is highly specific for an extrinsic compressing mass.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Normal CT scan of the chest</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal motility studies suggest that there is no obstruction or mass affecting esophageal function, arguing against an extrinsic compressing mass.</t>
+          <t>A normal CT scan of the chest is strong evidence against the presence of an extrinsic compressing mass on the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Endoscopic ultrasound revealing a hypoechoic lesion near the esophagus</t>
+          <t>Barium swallow test showing external compression</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Endoscopic ultrasound can provide detailed images of structures surrounding the esophagus, and a hypoechoic lesion suggests an extrinsic mass.</t>
+          <t>A barium swallow test that shows external compression of the esophagus is indicative of an extrinsic mass.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative results on imaging for mass lesions</t>
+          <t>Normal barium swallow test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Imaging studies that show no evidence of mass lesions significantly reduce the likelihood of an extrinsic compressing mass.</t>
+          <t>A normal barium swallow test, showing no external compression, argues against an extrinsic mass.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing narrowing of the esophagus</t>
+          <t>MRI showing a mediastinal mass adjacent to the esophagus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A barium swallow study can demonstrate structural abnormalities, and narrowing due to an extrinsic mass would be a strong indicator.</t>
+          <t>An MRI that identifies a mediastinal mass adjacent to the esophagus supports the presence of an extrinsic compressing mass.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal chest X-ray findings</t>
+          <t>Normal esophagogastroduodenoscopy (EGD)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal chest X-ray would typically not show any signs of an extrinsic mass, providing evidence against the diagnosis.</t>
+          <t>An EGD that shows no external compression of the esophagus suggests the absence of an extrinsic mass.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MRI showing a well-defined mass compressing the esophagus</t>
+          <t>Endoscopic ultrasound showing external compression</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MRI is highly sensitive for soft tissue evaluation, and a well-defined mass compressing the esophagus supports the diagnosis.</t>
+          <t>Endoscopic ultrasound can visualize external compression, which is specific for an extrinsic mass.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of lymphadenopathy on imaging</t>
+          <t>Normal MRI of the chest</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of lymphadenopathy suggests that there is no associated mass effect or malignancy, which would be expected with an extrinsic compressing mass.</t>
+          <t>A normal MRI of the chest, showing no masses, is evidence against an extrinsic compressing mass.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PET scan showing increased metabolic activity in a mass near the esophagus</t>
+          <t>PET scan showing increased uptake in a mass compressing the esophagus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Increased metabolic activity on a PET scan can indicate malignancy, which may present as an extrinsic compressing mass.</t>
+          <t>A PET scan showing increased metabolic activity in a mass compressing the esophagus suggests a pathological extrinsic mass.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal esophageal endoscopy results</t>
+          <t>Normal PET scan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal findings during an esophageal endoscopy would indicate that there is no obstruction or mass affecting the esophagus.</t>
+          <t>A normal PET scan, showing no abnormal uptake, suggests there is no extrinsic compressing mass.</t>
         </is>
       </c>
     </row>
